--- a/spliced/falling/2023-03-28_19-36-09/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-28_19-36-09/gyroscope_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.303600013256073</v>
+        <v>-0.0044287731871008</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.543059229850769</v>
+        <v>-0.00534507073462</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.08170322328805921</v>
+        <v>-0.0059559359215199</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.4523457288742065</v>
+        <v>0.0229074470698833</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0187841057777404</v>
+        <v>0.0282525178045034</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.3654501438140869</v>
+        <v>-0.0174096599221229</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.7015787363052368</v>
+        <v>0.0105374250560998</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1618792861700058</v>
+        <v>0.022754730656743</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.5829181671142578</v>
+        <v>0.027030786499381</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.675450682640076</v>
+        <v>0.0693332031369209</v>
       </c>
       <c r="B5" t="n">
-        <v>1.475086808204651</v>
+        <v>-0.06383541971445079</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.8148942589759827</v>
+        <v>0.0491746515035629</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.0062613687478005</v>
+        <v>0.1331686228513717</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.9306532144546508</v>
+        <v>-0.3678936064243316</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.9676105380058287</v>
+        <v>0.0591012127697467</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.3433062732219696</v>
+        <v>0.303600013256073</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.104138970375061</v>
+        <v>-0.543059229850769</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.457677245140076</v>
+        <v>-0.08170322328805921</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.0331394411623477</v>
+        <v>0.4523457288742065</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.091463446617126</v>
+        <v>-0.0187841057777404</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.2848159074783325</v>
+        <v>-0.3654501438140869</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.5441282391548157</v>
+        <v>0.7015787363052368</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.445612549781799</v>
+        <v>0.1618792861700058</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.023199319839478</v>
+        <v>-0.5829181671142578</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.6220135092735291</v>
+        <v>1.675450682640076</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1217148974537849</v>
+        <v>1.475086808204651</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.1632537394762039</v>
+        <v>-0.8148942589759827</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.3145956099033355</v>
+        <v>0.0062613687478005</v>
       </c>
       <c r="B11" t="n">
-        <v>2.293798923492432</v>
+        <v>-0.9306532144546508</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2837468981742859</v>
+        <v>-0.9676105380058287</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.4984660446643829</v>
+        <v>0.3433062732219696</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9101892113685608</v>
+        <v>-1.104138970375061</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.3303253948688507</v>
+        <v>-1.457677245140076</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.2298380434513092</v>
+        <v>-0.0331394411623477</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.4005748927593231</v>
+        <v>-1.091463446617126</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.2790127098560333</v>
+        <v>-0.2848159074783325</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.1247692257165908</v>
+        <v>-0.5441282391548157</v>
       </c>
       <c r="B14" t="n">
-        <v>0.8822421431541443</v>
+        <v>-1.445612549781799</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.0335975885391235</v>
+        <v>-1.023199319839478</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.1759291887283325</v>
+        <v>-0.6220135092735291</v>
       </c>
       <c r="B15" t="n">
-        <v>0.4524984359741211</v>
+        <v>0.1217148974537849</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3895792961120605</v>
+        <v>-0.1632537394762039</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.0332921557128429</v>
+        <v>-0.3145956099033355</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.3558290004730224</v>
+        <v>2.293798923492432</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.0131336031481623</v>
+        <v>0.2837468981742859</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.0276416521519422</v>
+        <v>-0.4984660446643829</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.413097620010376</v>
+        <v>0.9101892113685608</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.1679879426956176</v>
+        <v>-0.3303253948688507</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.0131336031481623</v>
+        <v>-0.2298380434513092</v>
       </c>
       <c r="B18" t="n">
-        <v>0.164170041680336</v>
+        <v>-0.4005748927593231</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0546724386513233</v>
+        <v>-0.2790127098560333</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.0343611687421798</v>
+        <v>0.1247692257165908</v>
       </c>
       <c r="B19" t="n">
-        <v>0.3625485301017761</v>
+        <v>0.8822421431541443</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0714712366461753</v>
+        <v>-0.0335975885391235</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.0067195175215601</v>
+        <v>-0.1759291887283325</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.1789835095405578</v>
+        <v>0.4524984359741211</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.0943786799907684</v>
+        <v>0.3895792961120605</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>-0.0332921557128429</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-0.3558290004730224</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.0131336031481623</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-0.0276416521519422</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-0.413097620010376</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.1679879426956176</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.0131336031481623</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.164170041680336</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.0546724386513233</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.0343611687421798</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.3625485301017761</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.0714712366461753</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-0.0067195175215601</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-0.1789835095405578</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.0943786799907684</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
         <v>0.0149661982432007</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B26" t="n">
         <v>0.0607810914516449</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C26" t="n">
         <v>-0.0117591563612222</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-0.01328631862998</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.0971275717020034</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.0707076489925384</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-0.0103847095742821</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-0.119576871395111</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.0267253536731004</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.0067195175215601</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-0.0253509078174829</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.0310014113783836</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-0.0029016099870204</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.0800233483314514</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.0277943685650825</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-0.00137444678694</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-0.0520762614905834</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.0032070425804704</v>
       </c>
     </row>
   </sheetData>
